--- a/Nov 10/Status Report.xlsx
+++ b/Nov 10/Status Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>Source of proposal.json and ND file Mapping</t>
+  </si>
+  <si>
+    <t>8h</t>
   </si>
   <si>
     <t>8hr</t>
@@ -45,11 +48,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -60,6 +63,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -68,7 +87,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -81,48 +100,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,67 +156,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,187 +216,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,20 +412,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -437,30 +429,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -499,162 +467,197 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -977,7 +980,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="2"/>
@@ -1017,7 +1020,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1025,10 +1028,10 @@
         <v>44515</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1036,10 +1039,10 @@
         <v>44516</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1047,10 +1050,10 @@
         <v>44517</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1058,10 +1061,10 @@
         <v>44518</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1069,10 +1072,10 @@
         <v>44519</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Nov 10/Status Report.xlsx
+++ b/Nov 10/Status Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>Source of proposal.json and ND file Mapping</t>
-  </si>
-  <si>
-    <t>8h</t>
   </si>
   <si>
     <t>8hr</t>
@@ -48,11 +45,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -60,6 +57,97 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -71,45 +159,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,14 +175,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,70 +197,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,6 +213,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -223,180 +394,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,9 +409,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -429,6 +437,30 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -467,197 +499,162 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -980,7 +977,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="2"/>
@@ -1020,7 +1017,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1028,10 +1025,10 @@
         <v>44515</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1039,10 +1036,10 @@
         <v>44516</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1050,10 +1047,10 @@
         <v>44517</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1061,10 +1058,10 @@
         <v>44518</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1072,10 +1069,10 @@
         <v>44519</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
